--- a/Automation-UserCMD/TestData/Outputs/Users.xlsx
+++ b/Automation-UserCMD/TestData/Outputs/Users.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="User" sheetId="1" r:id="R38c4640118d445c7"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="User" sheetId="1" r:id="R454517ce470c48f3"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/Automation-UserCMD/TestData/Outputs/Users.xlsx
+++ b/Automation-UserCMD/TestData/Outputs/Users.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="User" sheetId="1" r:id="R454517ce470c48f3"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="User" sheetId="1" r:id="Rc83fc5d6837944ef"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/Automation-UserCMD/TestData/Outputs/Users.xlsx
+++ b/Automation-UserCMD/TestData/Outputs/Users.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="User" sheetId="1" r:id="Rc83fc5d6837944ef"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="User" sheetId="1" r:id="Re1607068c67d4ffc"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/Automation-UserCMD/TestData/Outputs/Users.xlsx
+++ b/Automation-UserCMD/TestData/Outputs/Users.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="User" sheetId="1" r:id="Re1607068c67d4ffc"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="User" sheetId="1" r:id="Rb13945fd96fd408d"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/Automation-UserCMD/TestData/Outputs/Users.xlsx
+++ b/Automation-UserCMD/TestData/Outputs/Users.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="User" sheetId="1" r:id="Rb13945fd96fd408d"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="User" sheetId="1" r:id="R938f10ad45a54621"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/Automation-UserCMD/TestData/Outputs/Users.xlsx
+++ b/Automation-UserCMD/TestData/Outputs/Users.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="User" sheetId="1" r:id="R938f10ad45a54621"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="User" sheetId="1" r:id="Rde7e3c11564c4a1d"/>
   </x:sheets>
 </x:workbook>
 </file>
